--- a/VerveStacks_CHN/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AD59FAC-4E6D-4FC0-93F0-1C7E24807CBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E48A3F-B506-461C-8710-4A48E21A71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/VerveStacks_CHN/SuppXLS/Scen_Par-AR6_R10.xlsx
+++ b/VerveStacks_CHN/SuppXLS/Scen_Par-AR6_R10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_CHN\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E48A3F-B506-461C-8710-4A48E21A71C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86662369-BF82-4646-99AB-5917532ECEC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
     <t>R10CHINA+</t>
   </si>
   <si>
-    <t xml:space="preserve"> Regulated gas prices, growing biomass sector </t>
+    <t>LNG imports expensive, domestic coal cheap</t>
   </si>
 </sst>
 </file>
@@ -6906,39 +6906,39 @@
       </c>
       <c r="G43">
         <f t="shared" ref="G43:M46" si="9">AVERAGE($P43:$Q43)*G35</f>
-        <v>15.4</v>
+        <v>20.55</v>
       </c>
       <c r="H43">
         <f t="shared" si="9"/>
-        <v>19.096</v>
+        <v>25.481999999999999</v>
       </c>
       <c r="I43">
         <f t="shared" si="9"/>
-        <v>20.328000000000003</v>
+        <v>27.126000000000001</v>
       </c>
       <c r="J43">
         <f t="shared" si="9"/>
-        <v>21.405999999999999</v>
+        <v>28.564499999999999</v>
       </c>
       <c r="K43">
         <f t="shared" si="9"/>
-        <v>19.712</v>
+        <v>26.304000000000002</v>
       </c>
       <c r="L43">
         <f t="shared" si="9"/>
-        <v>23.254000000000001</v>
+        <v>31.0305</v>
       </c>
       <c r="M43">
         <f t="shared" si="9"/>
-        <v>24.64</v>
+        <v>32.880000000000003</v>
       </c>
       <c r="P43">
         <f>HLOOKUP($E43&amp;"_"&amp;P$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>13.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="Q43">
         <f>HLOOKUP($E43&amp;"_"&amp;Q$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>17.100000000000001</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.45">
@@ -6962,39 +6962,39 @@
       </c>
       <c r="G44">
         <f t="shared" si="9"/>
-        <v>17.5</v>
+        <v>10.649999999999999</v>
       </c>
       <c r="H44">
         <f t="shared" si="9"/>
-        <v>18.2</v>
+        <v>11.075999999999999</v>
       </c>
       <c r="I44">
         <f t="shared" si="9"/>
-        <v>19.425000000000001</v>
+        <v>11.8215</v>
       </c>
       <c r="J44">
         <f t="shared" si="9"/>
-        <v>21.175000000000001</v>
+        <v>12.886499999999998</v>
       </c>
       <c r="K44">
         <f t="shared" si="9"/>
-        <v>21.524999999999999</v>
+        <v>13.099499999999997</v>
       </c>
       <c r="L44">
         <f t="shared" si="9"/>
-        <v>21.7</v>
+        <v>13.205999999999998</v>
       </c>
       <c r="M44">
         <f t="shared" si="9"/>
-        <v>21.875</v>
+        <v>13.312499999999998</v>
       </c>
       <c r="P44">
         <f>HLOOKUP($E44&amp;"_"&amp;P$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>15.2</v>
+        <v>9.1</v>
       </c>
       <c r="Q44">
         <f>HLOOKUP($E44&amp;"_"&amp;Q$42,fuel_prices!$B$10:$I$11,2,FALSE)</f>
-        <v>19.8</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.45">
@@ -7369,16 +7369,16 @@
         <v>115</v>
       </c>
       <c r="B11">
-        <v>13.7</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="C11">
-        <v>17.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="D11">
-        <v>15.2</v>
+        <v>9.1</v>
       </c>
       <c r="E11">
-        <v>19.8</v>
+        <v>12.2</v>
       </c>
       <c r="F11">
         <v>48</v>
